--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="8175"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>TestCase</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>PageTitle</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>N</t>
@@ -136,7 +133,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -171,7 +168,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -413,7 +410,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="8175"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>TestCase</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>LoginTest</t>
   </si>
 </sst>
 </file>
@@ -133,7 +139,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -168,7 +174,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -377,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,6 +419,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="8175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="8175" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RunModes" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginTest" sheetId="2" r:id="rId2"/>
+    <sheet name="LoginTest2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>TestCase</t>
   </si>
@@ -35,16 +37,78 @@
   </si>
   <si>
     <t>LoginTest</t>
+  </si>
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>CrePswd</t>
+  </si>
+  <si>
+    <t>ConPswd</t>
+  </si>
+  <si>
+    <t>*****1</t>
+  </si>
+  <si>
+    <t>Narayana1</t>
+  </si>
+  <si>
+    <t>Narayana2</t>
+  </si>
+  <si>
+    <t>Narayana3</t>
+  </si>
+  <si>
+    <t>Narayana4</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>n1@n.com</t>
+  </si>
+  <si>
+    <t>*****2</t>
+  </si>
+  <si>
+    <t>*****3</t>
+  </si>
+  <si>
+    <t>*****4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -73,14 +137,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -385,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,4 +497,125 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3:C5" r:id="rId2" display="n1@n.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/Test.xlsx
+++ b/src/test/resources/Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="8175" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="8175"/>
   </bookViews>
   <sheets>
     <sheet name="RunModes" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>TestCase</t>
   </si>
@@ -28,9 +28,6 @@
   </si>
   <si>
     <t>PageTitle</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>Y</t>
@@ -452,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,10 +485,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -514,87 +511,87 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -610,7 +607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
